--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2617986.402032075</v>
+        <v>-2620895.35010344</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.396723986041642</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>6.965323866039611</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>77.36042051497324</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>335.2544961588364</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>335.2544961588364</v>
+        <v>335.2544961588308</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.58659989534474</v>
+        <v>12.58659989534476</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>252.7519700296993</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>147.126083575274</v>
       </c>
       <c r="T5" t="n">
         <v>211.2059571334993</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>72.12579513484924</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>335.2544961588308</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>15.1440405895593</v>
+        <v>135.8902554169238</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.19999526577868</v>
       </c>
       <c r="I6" t="n">
-        <v>49.48683303354431</v>
+        <v>49.48683303354468</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.6894715620621</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.3070640244811</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8457727555612</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>219.9150039407895</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>63.33024104351843</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>28.91930888450515</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>374.0568559643496</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>47.38212367386474</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>74.40528838232848</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>107.1323329988169</v>
+        <v>12.0303007229593</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>164.8280908524519</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>171.4915124652516</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>151.044645682067</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>118.8241514613401</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>74.99129529219189</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>100.1755269486888</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>36.74735985928049</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>106.3434154283422</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,16 +2722,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3016,7 +3016,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600556</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.010065354184</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652517</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352486</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541843</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>210.8831693494286</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C2" t="n">
-        <v>210.8831693494286</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D2" t="n">
-        <v>21.46338433294363</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E2" t="n">
-        <v>21.46338433294363</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F2" t="n">
-        <v>21.46338433294363</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823986</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659136</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659136</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="V2" t="n">
-        <v>400.3029543659136</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="W2" t="n">
-        <v>400.3029543659136</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="X2" t="n">
-        <v>400.3029543659136</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="Y2" t="n">
-        <v>210.8831693494286</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.53661367296051</v>
+        <v>364.227097959543</v>
       </c>
       <c r="C3" t="n">
-        <v>30.53661367296051</v>
+        <v>189.774068678416</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296051</v>
+        <v>189.774068678416</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296051</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296051</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296051</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296051</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296051</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264288</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264288</v>
+        <v>743.0666679925127</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264288</v>
+        <v>553.6468829760279</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264288</v>
+        <v>553.6468829760279</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099438</v>
+        <v>364.227097959543</v>
       </c>
       <c r="W3" t="n">
-        <v>298.0982375934589</v>
+        <v>364.227097959543</v>
       </c>
       <c r="X3" t="n">
-        <v>219.9563986894455</v>
+        <v>364.227097959543</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.53661367296051</v>
+        <v>364.227097959543</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>385.1205029208813</v>
+        <v>640.4255231528946</v>
       </c>
       <c r="C5" t="n">
-        <v>46.47959770993538</v>
+        <v>301.7846179419544</v>
       </c>
       <c r="D5" t="n">
-        <v>46.47959770993538</v>
+        <v>301.7846179419544</v>
       </c>
       <c r="E5" t="n">
-        <v>46.47959770993538</v>
+        <v>301.7846179419544</v>
       </c>
       <c r="F5" t="n">
-        <v>39.5340969607319</v>
+        <v>294.839117192751</v>
       </c>
       <c r="G5" t="n">
-        <v>26.82035969270692</v>
+        <v>282.125379924726</v>
       </c>
       <c r="H5" t="n">
-        <v>26.82035969270692</v>
+        <v>26.82035969270646</v>
       </c>
       <c r="I5" t="n">
-        <v>26.82035969270692</v>
+        <v>26.82035969270646</v>
       </c>
       <c r="J5" t="n">
-        <v>75.80841166588897</v>
+        <v>75.80841166588675</v>
       </c>
       <c r="K5" t="n">
-        <v>199.9673209772266</v>
+        <v>199.967320977222</v>
       </c>
       <c r="L5" t="n">
-        <v>390.8991887176494</v>
+        <v>390.8991887176412</v>
       </c>
       <c r="M5" t="n">
-        <v>635.0171176553451</v>
+        <v>635.0171176553337</v>
       </c>
       <c r="N5" t="n">
-        <v>887.6989382795232</v>
+        <v>887.6989382795082</v>
       </c>
       <c r="O5" t="n">
-        <v>1112.963955034634</v>
+        <v>1112.963955034616</v>
       </c>
       <c r="P5" t="n">
-        <v>1270.721434285811</v>
+        <v>1270.72143428579</v>
       </c>
       <c r="Q5" t="n">
-        <v>1341.017984635346</v>
+        <v>1341.017984635323</v>
       </c>
       <c r="R5" t="n">
-        <v>1341.017984635346</v>
+        <v>1341.017984635323</v>
       </c>
       <c r="S5" t="n">
-        <v>1341.017984635346</v>
+        <v>1192.405779003733</v>
       </c>
       <c r="T5" t="n">
-        <v>1127.678633995448</v>
+        <v>979.0664283638348</v>
       </c>
       <c r="U5" t="n">
-        <v>1127.678633995448</v>
+        <v>979.0664283638348</v>
       </c>
       <c r="V5" t="n">
-        <v>796.615746651877</v>
+        <v>979.0664283638348</v>
       </c>
       <c r="W5" t="n">
-        <v>723.7614081318272</v>
+        <v>979.0664283638348</v>
       </c>
       <c r="X5" t="n">
-        <v>723.7614081318272</v>
+        <v>979.0664283638348</v>
       </c>
       <c r="Y5" t="n">
-        <v>723.7614081318272</v>
+        <v>640.4255231528946</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>425.7945547096971</v>
+        <v>942.4213103169353</v>
       </c>
       <c r="C6" t="n">
-        <v>251.3415254285701</v>
+        <v>767.9682810358083</v>
       </c>
       <c r="D6" t="n">
-        <v>251.3415254285701</v>
+        <v>619.0338713745571</v>
       </c>
       <c r="E6" t="n">
-        <v>92.10407042311462</v>
+        <v>459.7964163691015</v>
       </c>
       <c r="F6" t="n">
-        <v>92.10407042311462</v>
+        <v>313.2618583959865</v>
       </c>
       <c r="G6" t="n">
-        <v>76.80705972659007</v>
+        <v>175.9989741364674</v>
       </c>
       <c r="H6" t="n">
-        <v>76.80705972659007</v>
+        <v>76.80705972658998</v>
       </c>
       <c r="I6" t="n">
-        <v>26.82035969270692</v>
+        <v>26.82035969270646</v>
       </c>
       <c r="J6" t="n">
-        <v>37.17946088918812</v>
+        <v>37.17946088918668</v>
       </c>
       <c r="K6" t="n">
-        <v>133.0396395322617</v>
+        <v>133.0396395322586</v>
       </c>
       <c r="L6" t="n">
-        <v>308.2580207538353</v>
+        <v>308.2580207538299</v>
       </c>
       <c r="M6" t="n">
-        <v>532.086475294556</v>
+        <v>532.0864752945479</v>
       </c>
       <c r="N6" t="n">
-        <v>776.2476479203638</v>
+        <v>776.2476479203531</v>
       </c>
       <c r="O6" t="n">
-        <v>977.3876249173609</v>
+        <v>977.3876249173478</v>
       </c>
       <c r="P6" t="n">
-        <v>1119.487123027784</v>
+        <v>1119.487123027769</v>
       </c>
       <c r="Q6" t="n">
-        <v>1164.557677933911</v>
+        <v>1164.557677933894</v>
       </c>
       <c r="R6" t="n">
-        <v>1164.557677933911</v>
+        <v>1164.557677933894</v>
       </c>
       <c r="S6" t="n">
-        <v>1018.406696558091</v>
+        <v>1164.557677933894</v>
       </c>
       <c r="T6" t="n">
-        <v>822.1369349172007</v>
+        <v>1164.557677933894</v>
       </c>
       <c r="U6" t="n">
-        <v>594.0098917297652</v>
+        <v>1164.557677933894</v>
       </c>
       <c r="V6" t="n">
-        <v>594.0098917297652</v>
+        <v>942.4213103169353</v>
       </c>
       <c r="W6" t="n">
-        <v>594.0098917297652</v>
+        <v>942.4213103169353</v>
       </c>
       <c r="X6" t="n">
-        <v>594.0098917297652</v>
+        <v>942.4213103169353</v>
       </c>
       <c r="Y6" t="n">
-        <v>594.0098917297652</v>
+        <v>942.4213103169353</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>237.6802476386157</v>
+        <v>26.82035969270646</v>
       </c>
       <c r="C7" t="n">
-        <v>237.6802476386157</v>
+        <v>26.82035969270646</v>
       </c>
       <c r="D7" t="n">
-        <v>237.6802476386157</v>
+        <v>26.82035969270646</v>
       </c>
       <c r="E7" t="n">
-        <v>173.7103071906173</v>
+        <v>26.82035969270646</v>
       </c>
       <c r="F7" t="n">
-        <v>26.82035969270692</v>
+        <v>26.82035969270646</v>
       </c>
       <c r="G7" t="n">
-        <v>26.82035969270692</v>
+        <v>26.82035969270646</v>
       </c>
       <c r="H7" t="n">
-        <v>26.82035969270692</v>
+        <v>26.82035969270646</v>
       </c>
       <c r="I7" t="n">
-        <v>26.82035969270692</v>
+        <v>26.82035969270646</v>
       </c>
       <c r="J7" t="n">
-        <v>26.82035969270692</v>
+        <v>26.82035969270646</v>
       </c>
       <c r="K7" t="n">
-        <v>39.23367185447304</v>
+        <v>39.23367185447158</v>
       </c>
       <c r="L7" t="n">
-        <v>85.0242353699478</v>
+        <v>85.02423536994505</v>
       </c>
       <c r="M7" t="n">
-        <v>136.5622473004362</v>
+        <v>136.562247300432</v>
       </c>
       <c r="N7" t="n">
-        <v>194.7323264062862</v>
+        <v>194.7323264062808</v>
       </c>
       <c r="O7" t="n">
-        <v>228.1487206430519</v>
+        <v>228.1487206430452</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6802476386157</v>
+        <v>237.6802476386079</v>
       </c>
       <c r="Q7" t="n">
-        <v>237.6802476386157</v>
+        <v>237.6802476386079</v>
       </c>
       <c r="R7" t="n">
-        <v>237.6802476386157</v>
+        <v>237.6802476386079</v>
       </c>
       <c r="S7" t="n">
-        <v>237.6802476386157</v>
+        <v>208.4688245229462</v>
       </c>
       <c r="T7" t="n">
-        <v>237.6802476386157</v>
+        <v>208.4688245229462</v>
       </c>
       <c r="U7" t="n">
-        <v>237.6802476386157</v>
+        <v>208.4688245229462</v>
       </c>
       <c r="V7" t="n">
-        <v>237.6802476386157</v>
+        <v>208.4688245229462</v>
       </c>
       <c r="W7" t="n">
-        <v>237.6802476386157</v>
+        <v>208.4688245229462</v>
       </c>
       <c r="X7" t="n">
-        <v>237.6802476386157</v>
+        <v>208.4688245229462</v>
       </c>
       <c r="Y7" t="n">
-        <v>237.6802476386157</v>
+        <v>208.4688245229462</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.454286442883</v>
+        <v>1627.222941712997</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.454286442883</v>
+        <v>1258.260424772586</v>
       </c>
       <c r="D8" t="n">
-        <v>916.1885878361329</v>
+        <v>899.9947261658353</v>
       </c>
       <c r="E8" t="n">
-        <v>916.1885878361329</v>
+        <v>514.206473567591</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3533797913353</v>
+        <v>103.2205687779835</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>91.22992752179482</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4841,13 +4841,13 @@
         <v>1627.222941712997</v>
       </c>
       <c r="W8" t="n">
-        <v>1274.454286442883</v>
+        <v>1627.222941712997</v>
       </c>
       <c r="X8" t="n">
-        <v>1274.454286442883</v>
+        <v>1627.222941712997</v>
       </c>
       <c r="Y8" t="n">
-        <v>1274.454286442883</v>
+        <v>1627.222941712997</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>267.4604631511913</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>267.4604631511913</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>118.52605348994</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>43.36919653809306</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
         <v>43.36919653809306</v>
@@ -4905,28 +4905,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948358</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1172.461727081622</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>937.3096188498796</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>683.072262121678</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>475.2207619161452</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>267.4604631511913</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>191.2822901204862</v>
+        <v>303.6661428091322</v>
       </c>
       <c r="C10" t="n">
-        <v>191.2822901204862</v>
+        <v>303.6661428091322</v>
       </c>
       <c r="D10" t="n">
-        <v>191.2822901204862</v>
+        <v>303.6661428091322</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>303.6661428091322</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>303.6661428091322</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>303.6661428091322</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="I10" t="n">
         <v>43.36919653809306</v>
@@ -4981,31 +4981,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U10" t="n">
-        <v>412.0748692640163</v>
+        <v>485.314607639372</v>
       </c>
       <c r="V10" t="n">
-        <v>412.0748692640163</v>
+        <v>485.314607639372</v>
       </c>
       <c r="W10" t="n">
-        <v>412.0748692640163</v>
+        <v>485.314607639372</v>
       </c>
       <c r="X10" t="n">
-        <v>412.0748692640163</v>
+        <v>485.314607639372</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.2822901204862</v>
+        <v>485.314607639372</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,49 +5033,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,28 +5291,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5495,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6217844681063</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
         <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1030.918378293891</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1433.359422267661</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1212.566843124131</v>
+        <v>879.176099401437</v>
       </c>
     </row>
     <row r="23">
@@ -5981,37 +5981,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>808.8888553856866</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>639.9526724577797</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>489.836033045444</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,19 +6236,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6370,19 +6370,19 @@
         <v>533.5814564942658</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
         <v>483.825546038073</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,22 +6473,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6616,10 +6616,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6643,19 +6643,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6844,7 +6844,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6929,46 +6929,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7111,7 +7111,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7120,22 +7120,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384014</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7357,13 +7357,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,10 +7372,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,28 +7421,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,19 +7658,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954146</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543628</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>406.7011092440164</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988665</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>85.99672338893569</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>161.715381551093</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>99.02076571537918</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>22.5139790151572</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,25 +22747,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>171.5037272356655</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>121.3563835367922</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>115.0314858713394</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>67.54000767002776</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>48.42266963728773</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>142.4141550350964</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>67.07129414993906</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>181.8372934928143</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>40.09054721822696</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -26320,13 +26320,13 @@
         <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="F2" t="n">
         <v>20178.66499225016</v>
       </c>
       <c r="G2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
         <v>20178.66499225015</v>
@@ -26341,19 +26341,19 @@
         <v>20526.0442466071</v>
       </c>
       <c r="L2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="M2" t="n">
         <v>20526.04424660708</v>
       </c>
-      <c r="M2" t="n">
-        <v>20526.0442466071</v>
-      </c>
       <c r="N2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="O2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>163527.4916130757</v>
+        <v>163527.4916130695</v>
       </c>
       <c r="D3" t="n">
-        <v>216759.931901023</v>
+        <v>216759.931901029</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.2075742654</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>68492.66272217642</v>
       </c>
       <c r="K3" t="n">
-        <v>38020.69384958594</v>
+        <v>38020.6938495845</v>
       </c>
       <c r="L3" t="n">
-        <v>52354.5208254453</v>
+        <v>52354.52082544674</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180465.3416072033</v>
+        <v>180465.3416072034</v>
       </c>
       <c r="C4" t="n">
-        <v>235058.4539805401</v>
+        <v>235058.4539805418</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26430,34 +26430,34 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189195</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="J4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.4432349854</v>
       </c>
       <c r="K4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498538</v>
       </c>
       <c r="L4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498541</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498542</v>
       </c>
       <c r="N4" t="n">
-        <v>24037.44323498551</v>
+        <v>24037.44323498539</v>
       </c>
       <c r="O4" t="n">
         <v>24037.44323498544</v>
       </c>
       <c r="P4" t="n">
-        <v>24037.44323498545</v>
+        <v>24037.44323498539</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>68740.00864417519</v>
+        <v>68740.00864417474</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-812577.5889589441</v>
+        <v>-813007.1478255328</v>
       </c>
       <c r="C6" t="n">
-        <v>-446799.9099911838</v>
+        <v>-446799.909991179</v>
       </c>
       <c r="D6" t="n">
-        <v>-455635.9595991859</v>
+        <v>-455635.9595991918</v>
       </c>
       <c r="E6" t="n">
-        <v>-698433.6563778141</v>
+        <v>-698468.3943032501</v>
       </c>
       <c r="F6" t="n">
-        <v>-96990.44880354893</v>
+        <v>-97025.18672898463</v>
       </c>
       <c r="G6" t="n">
-        <v>-96990.44880354895</v>
+        <v>-97025.18672898464</v>
       </c>
       <c r="H6" t="n">
-        <v>-96990.44880354896</v>
+        <v>-97025.18672898463</v>
       </c>
       <c r="I6" t="n">
-        <v>-96990.44880354893</v>
+        <v>-97025.1867289846</v>
       </c>
       <c r="J6" t="n">
         <v>-175168.1775644702</v>
       </c>
       <c r="K6" t="n">
-        <v>-144696.2086918797</v>
+        <v>-144696.2086918782</v>
       </c>
       <c r="L6" t="n">
-        <v>-159030.0356677391</v>
+        <v>-159030.0356677405</v>
       </c>
       <c r="M6" t="n">
-        <v>-263821.8953938917</v>
+        <v>-263821.8953938918</v>
       </c>
       <c r="N6" t="n">
-        <v>-106675.5148422938</v>
+        <v>-106675.5148422937</v>
       </c>
       <c r="O6" t="n">
-        <v>-126103.2328359255</v>
+        <v>-126103.2328359256</v>
       </c>
       <c r="P6" t="n">
-        <v>-106675.5148422938</v>
+        <v>-106675.5148422937</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>675.639232922841</v>
+        <v>675.6392329228361</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>335.2544961588364</v>
+        <v>335.2544961588308</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>127.1692920099362</v>
+        <v>127.1692920099314</v>
       </c>
       <c r="D3" t="n">
-        <v>178.0714316148432</v>
+        <v>178.0714316148481</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>147.7289089925163</v>
+        <v>147.7289089925108</v>
       </c>
       <c r="D4" t="n">
-        <v>206.8604605673268</v>
+        <v>206.8604605673324</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>147.7289089925163</v>
+        <v>147.7289089925107</v>
       </c>
       <c r="L4" t="n">
-        <v>206.8604605673268</v>
+        <v>206.8604605673324</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>147.7289089925163</v>
+        <v>147.7289089925108</v>
       </c>
       <c r="L4" t="n">
-        <v>206.8604605673268</v>
+        <v>206.8604605673324</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>99.69158577435428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,13 +27458,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>142.80492082491</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681227</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310515</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459948</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>128.4125646885042</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098424</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>144.7328420834706</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,28 +27576,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390158</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.47934550464413</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>30.0183956121711</v>
+        <v>30.01839561217679</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.6581577170896</v>
+        <v>58.90618768739051</v>
       </c>
       <c r="I5" t="n">
-        <v>105.7619939834398</v>
+        <v>105.7619939834405</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>44.96795805497871</v>
+        <v>44.96795805497993</v>
       </c>
       <c r="S5" t="n">
-        <v>147.1260835752735</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.1283618982533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>277.1151735825638</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>50.98344249722282</v>
       </c>
     </row>
     <row r="6">
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>120.7462148273645</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.19999526577857</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>55.44979659362677</v>
+        <v>55.44979659362743</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.6894715620623</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.3070640244812</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8457727555612</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>12.88558320863578</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>83.10372160305073</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.7726135285979</v>
       </c>
       <c r="H7" t="n">
-        <v>151.3947926746766</v>
+        <v>151.3947926746767</v>
       </c>
       <c r="I7" t="n">
-        <v>118.8108916074426</v>
+        <v>118.8108916074428</v>
       </c>
       <c r="J7" t="n">
-        <v>40.85695726823327</v>
+        <v>40.8569572682339</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>49.48347745809686</v>
+        <v>49.4834774580976</v>
       </c>
       <c r="R7" t="n">
-        <v>122.5112332454257</v>
+        <v>122.5112332454261</v>
       </c>
       <c r="S7" t="n">
-        <v>202.7838044383971</v>
+        <v>173.8644955538921</v>
       </c>
       <c r="T7" t="n">
         <v>222.739844518876</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>32.81918977736183</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>256.9446810823183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>83.23979207307246</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470353</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>11.39188093250797</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>18.15430933923925</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
@@ -28065,7 +28065,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>179.1027248168998</v>
+        <v>274.2047570927574</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31075,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31136,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31145,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.716137619790314</v>
+        <v>2.716137619790294</v>
       </c>
       <c r="H5" t="n">
-        <v>27.81664439867755</v>
+        <v>27.81664439867735</v>
       </c>
       <c r="I5" t="n">
-        <v>104.7138955869662</v>
+        <v>104.7138955869654</v>
       </c>
       <c r="J5" t="n">
-        <v>230.5287853076783</v>
+        <v>230.5287853076767</v>
       </c>
       <c r="K5" t="n">
-        <v>345.5028907534024</v>
+        <v>345.5028907533999</v>
       </c>
       <c r="L5" t="n">
-        <v>428.6268874350603</v>
+        <v>428.6268874350571</v>
       </c>
       <c r="M5" t="n">
-        <v>476.9299998310062</v>
+        <v>476.9299998310028</v>
       </c>
       <c r="N5" t="n">
-        <v>484.6472258432355</v>
+        <v>484.647225843232</v>
       </c>
       <c r="O5" t="n">
-        <v>457.6386323864455</v>
+        <v>457.6386323864422</v>
       </c>
       <c r="P5" t="n">
-        <v>390.5839848978721</v>
+        <v>390.5839848978692</v>
       </c>
       <c r="Q5" t="n">
-        <v>293.3123063891314</v>
+        <v>293.3123063891293</v>
       </c>
       <c r="R5" t="n">
-        <v>170.6175797591534</v>
+        <v>170.6175797591522</v>
       </c>
       <c r="S5" t="n">
-        <v>61.89398601097183</v>
+        <v>61.89398601097138</v>
       </c>
       <c r="T5" t="n">
-        <v>11.8898924306321</v>
+        <v>11.88989243063202</v>
       </c>
       <c r="U5" t="n">
-        <v>0.217291009583225</v>
+        <v>0.2172910095832234</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.453261746286866</v>
+        <v>1.453261746286855</v>
       </c>
       <c r="H6" t="n">
-        <v>14.03544897071789</v>
+        <v>14.03544897071779</v>
       </c>
       <c r="I6" t="n">
-        <v>50.03554696645568</v>
+        <v>50.03554696645532</v>
       </c>
       <c r="J6" t="n">
-        <v>137.3013652489709</v>
+        <v>137.3013652489699</v>
       </c>
       <c r="K6" t="n">
-        <v>234.6699022501909</v>
+        <v>234.6699022501892</v>
       </c>
       <c r="L6" t="n">
-        <v>315.5426436400495</v>
+        <v>315.5426436400472</v>
       </c>
       <c r="M6" t="n">
-        <v>368.2233819429483</v>
+        <v>368.2233819429456</v>
       </c>
       <c r="N6" t="n">
-        <v>377.9691591801089</v>
+        <v>377.9691591801062</v>
       </c>
       <c r="O6" t="n">
-        <v>345.7679383808052</v>
+        <v>345.7679383808027</v>
       </c>
       <c r="P6" t="n">
-        <v>277.5092539905156</v>
+        <v>277.5092539905136</v>
       </c>
       <c r="Q6" t="n">
-        <v>185.5075871225129</v>
+        <v>185.5075871225116</v>
       </c>
       <c r="R6" t="n">
-        <v>90.22970737033718</v>
+        <v>90.22970737033653</v>
       </c>
       <c r="S6" t="n">
-        <v>26.99369954177575</v>
+        <v>26.99369954177556</v>
       </c>
       <c r="T6" t="n">
-        <v>5.857664670340478</v>
+        <v>5.857664670340435</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09560932541360961</v>
+        <v>0.09560932541360892</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.218365829860861</v>
+        <v>1.218365829860852</v>
       </c>
       <c r="H7" t="n">
-        <v>10.83237983276293</v>
+        <v>10.83237983276285</v>
       </c>
       <c r="I7" t="n">
-        <v>36.63958331981571</v>
+        <v>36.63958331981544</v>
       </c>
       <c r="J7" t="n">
-        <v>86.13846417116284</v>
+        <v>86.13846417116221</v>
       </c>
       <c r="K7" t="n">
-        <v>141.5519573238345</v>
+        <v>141.5519573238335</v>
       </c>
       <c r="L7" t="n">
-        <v>181.1377707413138</v>
+        <v>181.1377707413125</v>
       </c>
       <c r="M7" t="n">
-        <v>190.9843818571892</v>
+        <v>190.9843818571879</v>
       </c>
       <c r="N7" t="n">
-        <v>186.443200127708</v>
+        <v>186.4432001277067</v>
       </c>
       <c r="O7" t="n">
-        <v>172.2104720243333</v>
+        <v>172.2104720243321</v>
       </c>
       <c r="P7" t="n">
-        <v>147.3558090951717</v>
+        <v>147.3558090951706</v>
       </c>
       <c r="Q7" t="n">
-        <v>102.021524171349</v>
+        <v>102.0215241713482</v>
       </c>
       <c r="R7" t="n">
-        <v>54.78215813174377</v>
+        <v>54.78215813174338</v>
       </c>
       <c r="S7" t="n">
-        <v>21.23279359857517</v>
+        <v>21.23279359857502</v>
       </c>
       <c r="T7" t="n">
-        <v>5.205744909405494</v>
+        <v>5.205744909405456</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06645631799241065</v>
+        <v>0.06645631799241017</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>467.1465236515247</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>339.9772972286971</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>573.8098963904295</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496635</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075158</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O45" t="n">
-        <v>485.1127032082914</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>49.48288078099202</v>
+        <v>49.48288078099037</v>
       </c>
       <c r="K5" t="n">
-        <v>125.4130397084218</v>
+        <v>125.4130397084193</v>
       </c>
       <c r="L5" t="n">
-        <v>192.860472465073</v>
+        <v>192.8604724650699</v>
       </c>
       <c r="M5" t="n">
-        <v>246.5837666037335</v>
+        <v>246.58376660373</v>
       </c>
       <c r="N5" t="n">
-        <v>255.2341622466446</v>
+        <v>255.2341622466411</v>
       </c>
       <c r="O5" t="n">
-        <v>227.5404209647588</v>
+        <v>227.5404209647555</v>
       </c>
       <c r="P5" t="n">
-        <v>159.3509891426025</v>
+        <v>159.3509891425997</v>
       </c>
       <c r="Q5" t="n">
-        <v>71.00661651468189</v>
+        <v>71.00661651467979</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>10.46373858230425</v>
+        <v>10.46373858230325</v>
       </c>
       <c r="K6" t="n">
-        <v>96.82846327583192</v>
+        <v>96.82846327583022</v>
       </c>
       <c r="L6" t="n">
-        <v>176.9882638601753</v>
+        <v>176.988263860173</v>
       </c>
       <c r="M6" t="n">
-        <v>226.0893480209299</v>
+        <v>226.0893480209273</v>
       </c>
       <c r="N6" t="n">
-        <v>246.6274470967756</v>
+        <v>246.6274470967729</v>
       </c>
       <c r="O6" t="n">
-        <v>203.1716939363608</v>
+        <v>203.1716939363583</v>
       </c>
       <c r="P6" t="n">
-        <v>143.5348465761854</v>
+        <v>143.5348465761833</v>
       </c>
       <c r="Q6" t="n">
-        <v>45.52581303649137</v>
+        <v>45.52581303649004</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>12.53869915329912</v>
+        <v>12.5386991532981</v>
       </c>
       <c r="L7" t="n">
-        <v>46.25309446007552</v>
+        <v>46.25309446007421</v>
       </c>
       <c r="M7" t="n">
-        <v>52.05859790958419</v>
+        <v>52.0585979095828</v>
       </c>
       <c r="N7" t="n">
-        <v>58.7576556624748</v>
+        <v>58.75765566247347</v>
       </c>
       <c r="O7" t="n">
-        <v>33.75393357249055</v>
+        <v>33.7539335724893</v>
       </c>
       <c r="P7" t="n">
-        <v>9.627805046024065</v>
+        <v>9.627805046022985</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>328.5921438716505</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>197.8432633066788</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>431.6758624684112</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663302</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630714</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O45" t="n">
-        <v>342.516458763847</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
